--- a/Experiments Band Saw 12.12 simplified.xlsx
+++ b/Experiments Band Saw 12.12 simplified.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvsmbk/Desktop/influx backup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvsmbk/Desktop/all/3 semester classes/Smart Production and Prototyping/Practical Part/gitProject/projectRaphael/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C645CB6F-7EF5-C745-8206-743E7EC9D0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856F7153-A71C-1749-8B02-AC9AC8270776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19760" xr2:uid="{37DF3477-6D37-E840-9A5E-36C10451128A}"/>
+    <workbookView xWindow="17160" yWindow="840" windowWidth="16880" windowHeight="19480" xr2:uid="{37DF3477-6D37-E840-9A5E-36C10451128A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,25 +199,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +554,7 @@
   <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -630,7 +629,7 @@
         <v>0.77565972222222224</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F40" si="0">E2-D2</f>
+        <f t="shared" ref="F2:F39" si="0">E2-D2</f>
         <v>6.0185185185190893E-4</v>
       </c>
       <c r="G2" s="3">
@@ -1063,7 +1062,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
@@ -1103,7 +1102,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -1143,7 +1142,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -1183,7 +1182,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
@@ -1223,7 +1222,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
@@ -1263,7 +1262,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>3</v>
@@ -1303,7 +1302,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>3</v>
@@ -1343,7 +1342,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>3</v>
@@ -1383,7 +1382,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -1423,7 +1422,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -1465,7 +1464,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
@@ -1507,7 +1506,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -1547,7 +1546,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -1587,7 +1586,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -1627,7 +1626,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -1667,7 +1666,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
@@ -1709,7 +1708,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
@@ -1751,7 +1750,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -1791,7 +1790,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -1831,7 +1830,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
@@ -1871,7 +1870,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
         <v>4</v>
@@ -1913,7 +1912,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
         <v>4</v>
@@ -1955,7 +1954,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
@@ -1997,7 +1996,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
@@ -2037,7 +2036,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3">
         <v>5</v>
@@ -2077,7 +2076,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3">
         <v>5</v>
@@ -2116,8 +2115,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="17" customHeight="1">
-      <c r="A39" s="6">
-        <v>37</v>
+      <c r="A39" s="3">
+        <v>38</v>
       </c>
       <c r="B39" s="6">
         <v>0</v>
@@ -2156,8 +2155,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="17">
-      <c r="A40" s="6">
-        <v>37</v>
+      <c r="A40" s="3">
+        <v>39</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -2195,10 +2194,10 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1">
-      <c r="A41" s="9">
-        <v>38</v>
-      </c>
-      <c r="B41" s="9">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
         <v>5</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -2223,7 +2222,7 @@
       <c r="I41" s="6">
         <v>26</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
@@ -2237,10 +2236,10 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="19" customHeight="1">
-      <c r="A42" s="9">
-        <v>38</v>
-      </c>
-      <c r="B42" s="9">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
         <v>5</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -2264,7 +2263,7 @@
       <c r="I42" s="6">
         <v>41</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
